--- a/Labs/Lab_3_Asymptotic_Analysis/Asymptotic_Analysis_On_4_Curves.xlsx
+++ b/Labs/Lab_3_Asymptotic_Analysis/Asymptotic_Analysis_On_4_Curves.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcdefg\OneDrive\Desktop\Fall 2022 CSC-17C\Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcdefg\OneDrive\Desktop\Fall 2022 CSC-17C\Labs\Lab_3_Asymptotic_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2DC64F-C7B3-4D4D-B399-6C9369E0493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D41B17-C8AA-49F2-8FFA-D78176FB126F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B9742570-9B64-49AD-AF8D-6F154516C405}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First Order Poly." sheetId="1" r:id="rId1"/>
-    <sheet name="1st Order Log. Function" sheetId="3" r:id="rId2"/>
-    <sheet name="2nd Order Log. Function" sheetId="4" r:id="rId3"/>
+    <sheet name="Log(N) Function" sheetId="3" r:id="rId2"/>
+    <sheet name="NLog(N) Function" sheetId="4" r:id="rId3"/>
     <sheet name="Second Order Poly." sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -136,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -196,13 +196,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A3F80D70-163B-4812-9AC9-A9EF1D855798}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -262,23 +262,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -810,11 +793,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94554272"/>
-        <c:axId val="94553616"/>
+        <c:axId val="152282240"/>
+        <c:axId val="152251392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94553616"/>
+        <c:axId val="152251392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,23 +846,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -913,12 +879,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94554272"/>
+        <c:crossAx val="152282240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94554272"/>
+        <c:axId val="152282240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,23 +933,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1017,7 +966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94553616"/>
+        <c:crossAx val="152251392"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1089,9 +1038,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1140,23 +1090,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1169,7 +1102,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1st Order Log. Function'!$E$14</c:f>
+              <c:f>'Log(N) Function'!$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1193,7 +1126,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1st Order Log. Function'!$C$15:$C$34</c:f>
+              <c:f>'Log(N) Function'!$C$15:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1262,7 +1195,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1st Order Log. Function'!$E$15:$E$34</c:f>
+              <c:f>'Log(N) Function'!$E$15:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1341,7 +1274,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1st Order Log. Function'!$G$12:$G$14</c:f>
+              <c:f>'Log(N) Function'!$G$12:$G$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1371,7 +1304,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1st Order Log. Function'!$C$15:$C$34</c:f>
+              <c:f>'Log(N) Function'!$C$15:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1440,7 +1373,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1st Order Log. Function'!$G$15:$G$34</c:f>
+              <c:f>'Log(N) Function'!$G$15:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1519,7 +1452,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1st Order Log. Function'!$H$12:$H$14</c:f>
+              <c:f>'Log(N) Function'!$H$12:$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1549,7 +1482,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1st Order Log. Function'!$C$15:$C$34</c:f>
+              <c:f>'Log(N) Function'!$C$15:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1618,7 +1551,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1st Order Log. Function'!$H$15:$H$34</c:f>
+              <c:f>'Log(N) Function'!$H$15:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1700,11 +1633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94554272"/>
-        <c:axId val="94553616"/>
+        <c:axId val="153042304"/>
+        <c:axId val="153040384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94553616"/>
+        <c:axId val="153040384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,23 +1686,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1803,12 +1719,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94554272"/>
+        <c:crossAx val="153042304"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94554272"/>
+        <c:axId val="153042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,23 +1773,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1907,7 +1806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94553616"/>
+        <c:crossAx val="153040384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1979,9 +1878,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2030,23 +1930,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2059,7 +1942,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2nd Order Log. Function'!$F$15</c:f>
+              <c:f>'NLog(N) Function'!$F$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2083,7 +1966,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2nd Order Log. Function'!$C$16:$C$35</c:f>
+              <c:f>'NLog(N) Function'!$C$16:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2152,7 +2035,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2nd Order Log. Function'!$F$16:$F$35</c:f>
+              <c:f>'NLog(N) Function'!$F$16:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2231,7 +2114,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2nd Order Log. Function'!$H$13:$H$15</c:f>
+              <c:f>'NLog(N) Function'!$H$13:$H$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2261,7 +2144,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2nd Order Log. Function'!$C$16:$C$35</c:f>
+              <c:f>'NLog(N) Function'!$C$16:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2330,7 +2213,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2nd Order Log. Function'!$H$16:$H$35</c:f>
+              <c:f>'NLog(N) Function'!$H$16:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2409,7 +2292,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2nd Order Log. Function'!$I$13:$I$15</c:f>
+              <c:f>'NLog(N) Function'!$I$13:$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2439,7 +2322,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2nd Order Log. Function'!$C$16:$C$35</c:f>
+              <c:f>'NLog(N) Function'!$C$16:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2508,7 +2391,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2nd Order Log. Function'!$I$16:$I$35</c:f>
+              <c:f>'NLog(N) Function'!$I$16:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2590,11 +2473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94554272"/>
-        <c:axId val="94553616"/>
+        <c:axId val="153196416"/>
+        <c:axId val="153194496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94553616"/>
+        <c:axId val="153194496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,23 +2526,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2693,12 +2559,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94554272"/>
+        <c:crossAx val="153196416"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94554272"/>
+        <c:axId val="153196416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,23 +2613,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2797,7 +2646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94553616"/>
+        <c:crossAx val="153194496"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2869,9 +2718,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2920,23 +2770,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3480,11 +3313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94554272"/>
-        <c:axId val="94553616"/>
+        <c:axId val="153334144"/>
+        <c:axId val="153315584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94553616"/>
+        <c:axId val="153315584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,23 +3366,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3583,12 +3399,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94554272"/>
+        <c:crossAx val="153334144"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94554272"/>
+        <c:axId val="153334144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,23 +3453,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3687,7 +3486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94553616"/>
+        <c:crossAx val="153315584"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3759,1918 +3558,11 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:lineWidthScale>3</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="95000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="5000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:lineWidthScale>3</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="95000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="5000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:lineWidthScale>3</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="95000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="5000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:lineWidthScale>3</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="95000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="5000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5712,13 +3604,64 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16505</cdr:x>
+      <cdr:y>0.25554</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37203</cdr:x>
+      <cdr:y>0.29491</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91E3FFA-A9D8-E80E-EFFC-0B7936F882F8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1336883" y="1360080"/>
+          <a:ext cx="1676400" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>f(n)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> &lt;= c''g(n) for all n &gt; 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>815767</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>806242</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>1995</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8299658" cy="5322479"/>
     <xdr:graphicFrame macro="">
@@ -5749,7 +3692,96 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74981</cdr:x>
+      <cdr:y>0.28596</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75532</cdr:x>
+      <cdr:y>0.29455</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C755982-A6E8-869F-8006-37B02AAE0A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6223208" y="1522005"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22649</cdr:x>
+      <cdr:y>0.22511</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43995</cdr:x>
+      <cdr:y>0.27343</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D699247-552E-0D94-E3CF-7F262BD57245}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1879808" y="1198155"/>
+          <a:ext cx="1771650" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>f(n) &lt;=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> c'g(n) for all n &gt; 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5787,7 +3819,58 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31876</cdr:x>
+      <cdr:y>0.30206</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58011</cdr:x>
+      <cdr:y>0.34501</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F196F86-7EFD-D82F-F1CB-8BE020513D78}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2451308" y="1607730"/>
+          <a:ext cx="2009775" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>f(n) &lt;=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> c'g(n) for all n &gt; 6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5823,6 +3906,89 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28249</cdr:x>
+      <cdr:y>0.40407</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50888</cdr:x>
+      <cdr:y>0.45418</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5215279A-C0B9-38D8-36F3-5DA4FD404A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2175083" y="2150655"/>
+          <a:ext cx="1743075" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>f(n) &lt;=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> c'g(n) for all n &gt; 6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5868,7 +4034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5920,7 +4086,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6121,10 +4287,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76B90AB-13CD-47E4-ADD4-CC95B5DF4A72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -6308,7 +4474,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ref="F16:F34" si="2">$G$7*C17</f>
+        <f t="shared" ref="F17:F34" si="2">$G$7*C17</f>
         <v>7.5</v>
       </c>
       <c r="G17" s="3">
@@ -6700,11 +4866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4588E768-A469-46F4-99F0-CEF6DC9563E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6909,7 +5075,7 @@
         <v>1.1928031367991561</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ref="H16:H34" si="3">$H$9*D17</f>
+        <f t="shared" ref="H17:H34" si="3">$H$9*D17</f>
         <v>1.9084850188786497</v>
       </c>
       <c r="I17" s="3"/>
@@ -7365,11 +5531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0D4766-CAAF-4149-8F46-E02C482289DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7591,7 +5757,7 @@
         <v>0.47712125471966244</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" ref="E17:E35" si="4">C18*D18</f>
+        <f t="shared" ref="E18:E35" si="4">C18*D18</f>
         <v>1.4313637641589874</v>
       </c>
       <c r="F18" s="6">
@@ -8126,10 +6292,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9B99C3-E70C-407C-BCDF-27CA2ADCB1FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
